--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P13_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P13_trail5 Features.xlsx
@@ -5176,7 +5176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5187,29 +5187,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5230,115 +5228,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5355,72 +5343,66 @@
         <v>1.214764058638402e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.4553968123930592</v>
+        <v>6.469065019711081e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.7589111943498721</v>
+        <v>1.6167186909597e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.469065019711081e-07</v>
+        <v>0.0401950713789468</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.6167186909597e-06</v>
+        <v>0.2510838033643926</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.0401950713789468</v>
+        <v>0.06460349618903186</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2510838033643926</v>
+        <v>1.707176374802646</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06460349618903186</v>
+        <v>1.393987697380781</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.716548407419991</v>
+        <v>17.18202124457216</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.393987697380781</v>
+        <v>8.934755614879154e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>17.18202124457216</v>
+        <v>1208707781.834941</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>8.934755614879154e-16</v>
+        <v>9.036943140544509e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1208707781.834941</v>
+        <v>1305.345013376345</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>9.036943140544509e-08</v>
+        <v>0.0001978476268329999</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1305.345013376345</v>
+        <v>13.44661871132958</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001978476268329999</v>
+        <v>0.9929446779621902</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>13.44661871132958</v>
+        <v>0.03577313701480982</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>0.9929446779621902</v>
+        <v>2.4884606841757</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.03577313701480982</v>
+        <v>0.9525201633697113</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.4884606841757</v>
+        <v>1.048050236373585</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9525201633697113</v>
+        <v>4</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.048050236373585</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.3617491944194581</v>
       </c>
     </row>
@@ -5435,72 +5417,66 @@
         <v>1.120859454766272e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.005963030200793144</v>
+        <v>5.447746029514874e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.3977161147707502</v>
+        <v>1.620609801898906e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.447746029514874e-07</v>
+        <v>0.02648559516237627</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.620609801898906e-06</v>
+        <v>0.2481243964646264</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.02648559516237627</v>
+        <v>0.06222098767212139</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2481243964646264</v>
+        <v>1.748090944051534</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06222098767212139</v>
+        <v>1.336046442657329</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.773278959628282</v>
+        <v>16.7303046834509</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.336046442657329</v>
+        <v>9.423744028171942e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>16.7303046834509</v>
+        <v>1145536751.791163</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.423744028171942e-16</v>
+        <v>9.538089115395438e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1145536751.791163</v>
+        <v>1236.635003384247</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>9.538089115395438e-08</v>
+        <v>0.0002031745280645105</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1236.635003384247</v>
+        <v>12.33612029637186</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002031745280645105</v>
+        <v>1.290505096494346</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.33612029637186</v>
+        <v>0.03091907204232679</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.290505096494346</v>
+        <v>3.773174956487058</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.03091907204232679</v>
+        <v>0.9595232258423267</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.773174956487058</v>
+        <v>0.999829067368199</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9595232258423267</v>
+        <v>3</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.999829067368199</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.904616107804285</v>
       </c>
     </row>
@@ -5515,72 +5491,66 @@
         <v>1.07365142704484e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2590226816296552</v>
+        <v>4.556640206111862e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.9239307327222908</v>
+        <v>1.622732919098582e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.556640206111862e-07</v>
+        <v>0.01226140077144548</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.622732919098582e-06</v>
+        <v>0.2374060921736776</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.01226140077144548</v>
+        <v>0.05646987952161423</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2374060921736776</v>
+        <v>1.761851606880032</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.05646987952161423</v>
+        <v>1.309949651275037</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.797240022313467</v>
+        <v>18.82519336983262</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.309949651275037</v>
+        <v>7.212884666900166e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>18.82519336983262</v>
+        <v>1495812487.620184</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.212884666900166e-16</v>
+        <v>7.304946100015112e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1495812487.620184</v>
+        <v>1613.850484882238</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.304946100015112e-08</v>
+        <v>6.006129239553293e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1613.850484882238</v>
+        <v>10.05021225044544</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>6.006129239553293e-05</v>
+        <v>1.530961377274457</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.05021225044544</v>
+        <v>0.006066596923410496</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.530961377274457</v>
+        <v>6.757489758620233</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.006066596923410496</v>
+        <v>0.9596682553349486</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>6.757489758620233</v>
+        <v>0.89800083645443</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9596682553349486</v>
+        <v>3</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.89800083645443</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>6.168122455359583</v>
       </c>
     </row>
@@ -5595,72 +5565,66 @@
         <v>1.062957553725912e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.3126909729364029</v>
+        <v>3.845139869050928e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.010174129462804</v>
+        <v>1.623265206239662e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.845139869050928e-07</v>
+        <v>-0.002230543750063039</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.623265206239662e-06</v>
+        <v>0.216571741922248</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.002230543750063039</v>
+        <v>0.04686486450908352</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.216571741922248</v>
+        <v>1.761997706103393</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04686486450908352</v>
+        <v>1.318866405180959</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.806132001501129</v>
+        <v>21.14825117062577</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.318866405180959</v>
+        <v>5.404273616329171e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>21.14825117062577</v>
+        <v>1994626145.076293</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.404273616329171e-16</v>
+        <v>5.476795156693053e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1994626145.076293</v>
+        <v>2150.108340211324</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.476795156693053e-08</v>
+        <v>2.611587982191675e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>2150.108340211324</v>
+        <v>9.437792819428203</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>2.611587982191675e-05</v>
+        <v>1.258196538260575</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.437792819428203</v>
+        <v>0.002326191905632583</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.258196538260575</v>
+        <v>7.627339165509993</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.002326191905632583</v>
+        <v>0.9594370725666417</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>7.627339165509993</v>
+        <v>0.7798546304773587</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9594370725666417</v>
+        <v>3</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.7798546304773587</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>7.955098407066635</v>
       </c>
     </row>
@@ -5675,72 +5639,66 @@
         <v>1.077888738845845e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2660276967261517</v>
+        <v>3.895902213035976e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.9817995956502874</v>
+        <v>1.62224385936011e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.895902213035976e-07</v>
+        <v>-0.01667352806969885</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.62224385936011e-06</v>
+        <v>0.1847331554692699</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.01667352806969885</v>
+        <v>0.03436046091775732</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1847331554692699</v>
+        <v>1.763547156952414</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03436046091775732</v>
+        <v>1.326362644305039</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.810848547881867</v>
+        <v>21.83611748646554</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.326362644305039</v>
+        <v>5.069153051172176e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>21.83611748646554</v>
+        <v>2126035218.292512</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.069153051172176e-16</v>
+        <v>5.138284449026616e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>2126035218.292512</v>
+        <v>2291.270231904965</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.138284449026616e-08</v>
+        <v>2.049407960767852e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>2291.270231904965</v>
+        <v>9.815474058299825</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>2.049407960767852e-05</v>
+        <v>1.186863973146077</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.815474058299825</v>
+        <v>0.001974471993776622</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.186863973146077</v>
+        <v>7.831479708406521</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.001974471993776622</v>
+        <v>0.9611479055788115</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>7.831479708406521</v>
+        <v>0.8916388285975476</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9611479055788115</v>
+        <v>3</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.8916388285975476</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>8.560142850680334</v>
       </c>
     </row>
@@ -5755,72 +5713,66 @@
         <v>1.105105017961637e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2246267900648903</v>
+        <v>3.918037481485262e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.9910533436574971</v>
+        <v>1.619688608747845e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.918037481485262e-07</v>
+        <v>-0.02969779589328735</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.619688608747845e-06</v>
+        <v>0.1468011562555651</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02969779589328735</v>
+        <v>0.02239459189718333</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1468011562555651</v>
+        <v>1.763934568641581</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02239459189718333</v>
+        <v>1.328413459249941</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.810937679842237</v>
+        <v>21.40354938638883</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.328413459249941</v>
+        <v>5.276119826991308e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>21.40354938638883</v>
+        <v>2042510377.583018</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.276119826991308e-16</v>
+        <v>5.348350807427585e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>2042510377.583018</v>
+        <v>2201.117333808211</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.348350807427585e-08</v>
+        <v>1.710453067160537e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>2201.117333808211</v>
+        <v>10.06583450498394</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>1.710453067160537e-05</v>
+        <v>1.165200773456606</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.06583450498394</v>
+        <v>0.001733048567505243</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.165200773456606</v>
+        <v>7.977146605900148</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.001733048567505243</v>
+        <v>0.9603046484665542</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>7.977146605900148</v>
+        <v>0.8018752864225521</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9603046484665542</v>
+        <v>3</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.8018752864225521</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>8.993369459026892</v>
       </c>
     </row>
@@ -6197,7 +6149,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.317193543359938</v>
+        <v>1.319961526417743</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.136062618338746</v>
@@ -6286,7 +6238,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.348842524765268</v>
+        <v>1.348786413189053</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.143637542367038</v>
@@ -6375,7 +6327,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.351090621236475</v>
+        <v>1.349860108083222</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.114552743159193</v>
@@ -6464,7 +6416,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.371668680294471</v>
+        <v>1.363962867414309</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.159187114445114</v>
@@ -6553,7 +6505,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.347412898781511</v>
+        <v>1.34372582092946</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.110328523773196</v>
@@ -6642,7 +6594,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.360032751439186</v>
+        <v>1.356564692136475</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.15691543323731</v>
@@ -6731,7 +6683,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.368979523075858</v>
+        <v>1.366602092313819</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.138180382948469</v>
@@ -6820,7 +6772,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.367629583922791</v>
+        <v>1.366760339792527</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.162343389337173</v>
@@ -6909,7 +6861,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.347985128268036</v>
+        <v>1.355639664882499</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.191381398807159</v>
@@ -6998,7 +6950,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.375760828957872</v>
+        <v>1.378963549304074</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.232811746676282</v>
@@ -7087,7 +7039,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.397076002836598</v>
+        <v>1.40087365706121</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.08921312771275</v>
@@ -7176,7 +7128,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.421439315541129</v>
+        <v>1.415604009580951</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.073431596487537</v>
@@ -7265,7 +7217,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.432411338825827</v>
+        <v>1.432596146844104</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.21663682881948</v>
@@ -7354,7 +7306,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.450016027903039</v>
+        <v>1.453408762810093</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.103403172865961</v>
@@ -7443,7 +7395,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.425120788563931</v>
+        <v>1.428950848298817</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.297074772445673</v>
@@ -7532,7 +7484,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.425680349581655</v>
+        <v>1.426411997255566</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.285037592779808</v>
@@ -7621,7 +7573,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.426280085704055</v>
+        <v>1.427787665313416</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.217938792041411</v>
@@ -7710,7 +7662,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.423906870253736</v>
+        <v>1.428098228754048</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.268014635319649</v>
@@ -7799,7 +7751,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.450167723201061</v>
+        <v>1.44190722806447</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.955289900064883</v>
@@ -7888,7 +7840,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.435561020475232</v>
+        <v>1.438300871629646</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.315544741072717</v>
@@ -7977,7 +7929,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.447613054656659</v>
+        <v>1.448262280806484</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.191289507156213</v>
@@ -8066,7 +8018,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.4412483317547</v>
+        <v>1.443665949824266</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.097315002414704</v>
@@ -8155,7 +8107,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.434142343055023</v>
+        <v>1.427474219856231</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.93037048190173</v>
@@ -8244,7 +8196,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.450448396397441</v>
+        <v>1.437395860254117</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.130429631632031</v>
@@ -8333,7 +8285,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.409939068519769</v>
+        <v>1.404605912034707</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.058592747853972</v>
@@ -8422,7 +8374,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.411977098313199</v>
+        <v>1.403509949931054</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.04563912940681</v>
@@ -8511,7 +8463,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.430123200408275</v>
+        <v>1.422711965460278</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.972039642140595</v>
@@ -8600,7 +8552,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.402494212390117</v>
+        <v>1.395659914106451</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.079138796989543</v>
@@ -8689,7 +8641,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.411272377725027</v>
+        <v>1.410740246022451</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.167073168816807</v>
@@ -8778,7 +8730,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.406745279297508</v>
+        <v>1.410286796028739</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.119405644614409</v>
@@ -8867,7 +8819,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.421029555296108</v>
+        <v>1.428641374165064</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.159481512121712</v>
@@ -8956,7 +8908,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.392499020905536</v>
+        <v>1.401021205664419</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.058138986338069</v>
@@ -9045,7 +8997,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.394197163892261</v>
+        <v>1.398167052152966</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.052845017365734</v>
@@ -9134,7 +9086,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.417444717502306</v>
+        <v>1.419253894376635</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.06709514527346</v>
@@ -9223,7 +9175,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.423711817381855</v>
+        <v>1.425769529409141</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.055067103262051</v>
@@ -9312,7 +9264,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.418642984922378</v>
+        <v>1.419372105669852</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.042400171429178</v>
@@ -9401,7 +9353,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.418650489305638</v>
+        <v>1.418613429856818</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.931269245647937</v>
@@ -9490,7 +9442,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.452318875268793</v>
+        <v>1.45070978154348</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.979469312112785</v>
@@ -9579,7 +9531,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.460047759517857</v>
+        <v>1.460265938469178</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.005932977411462</v>
@@ -9668,7 +9620,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.493814186502715</v>
+        <v>1.494450718047688</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.953675338062106</v>
@@ -9757,7 +9709,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.48524743115401</v>
+        <v>1.490533638956542</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.011131220927081</v>
@@ -9846,7 +9798,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.484485993142566</v>
+        <v>1.489554136784155</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.954084614454016</v>
@@ -9935,7 +9887,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.406217329375121</v>
+        <v>1.398910240687008</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.612754191257818</v>
@@ -10024,7 +9976,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.342428219513006</v>
+        <v>1.346386585930667</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.61070675429341</v>
@@ -10113,7 +10065,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.369082989881288</v>
+        <v>1.37024087432566</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.594427222497759</v>
@@ -10202,7 +10154,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.374332531823977</v>
+        <v>1.372975710668398</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.602786637458221</v>
@@ -10291,7 +10243,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.397451438357468</v>
+        <v>1.396253327315389</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.574438957224504</v>
@@ -10380,7 +10332,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.395469732425678</v>
+        <v>1.39923217750544</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.568391336042526</v>
@@ -10469,7 +10421,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.392838318121974</v>
+        <v>1.398358907404366</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.559588538860498</v>
@@ -10558,7 +10510,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.389385890616149</v>
+        <v>1.397756512380919</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.564124832654778</v>
@@ -10647,7 +10599,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.390620812231276</v>
+        <v>1.399606424834486</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.548469221949516</v>
@@ -10933,7 +10885,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.26552885481011</v>
+        <v>1.270572467105687</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.840432959634473</v>
@@ -11022,7 +10974,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.305105076789061</v>
+        <v>1.307169255940965</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.816032786766804</v>
@@ -11111,7 +11063,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.301650190051573</v>
+        <v>1.300539780715686</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.764318474667719</v>
@@ -11200,7 +11152,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.293742776425861</v>
+        <v>1.282487199526301</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.735690529977023</v>
@@ -11289,7 +11241,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.295963965630238</v>
+        <v>1.288512586183534</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.749746746998063</v>
@@ -11378,7 +11330,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.320268966102281</v>
+        <v>1.323906951016468</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.794866255187205</v>
@@ -11467,7 +11419,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.318104689716505</v>
+        <v>1.321080697180481</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.808801180390015</v>
@@ -11556,7 +11508,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.308148326813507</v>
+        <v>1.307771719131825</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.821773539501525</v>
@@ -11645,7 +11597,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.291340983167361</v>
+        <v>1.29393655050511</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.846477137849853</v>
@@ -11734,7 +11686,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.297867978284002</v>
+        <v>1.301027768990488</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.837976836808065</v>
@@ -11823,7 +11775,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.318856935279083</v>
+        <v>1.31923218241468</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.787505748288212</v>
@@ -11912,7 +11864,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.343877616052737</v>
+        <v>1.345194647063098</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.675569900419932</v>
@@ -12001,7 +11953,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.387054836647918</v>
+        <v>1.387016092838123</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.982989286203602</v>
@@ -12090,7 +12042,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.423818777464416</v>
+        <v>1.418687070244158</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.932202103922873</v>
@@ -12179,7 +12131,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.405957471313622</v>
+        <v>1.397351090784001</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.085958137260297</v>
@@ -12268,7 +12220,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.382078333485912</v>
+        <v>1.365578972630263</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.128732672729314</v>
@@ -12357,7 +12309,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.369755906207502</v>
+        <v>1.357688233936459</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.083769575458018</v>
@@ -12446,7 +12398,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.372636126370549</v>
+        <v>1.36209148801641</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.132381462287536</v>
@@ -12535,7 +12487,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.382193965993095</v>
+        <v>1.365274993299584</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.985021571392498</v>
@@ -12624,7 +12576,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.374960416524984</v>
+        <v>1.367531409871831</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.146018532076407</v>
@@ -12713,7 +12665,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.402724902140879</v>
+        <v>1.39574941229053</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.132909485162179</v>
@@ -12802,7 +12754,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.402506550986873</v>
+        <v>1.395529025314764</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.063838554551743</v>
@@ -12891,7 +12843,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.419656743900279</v>
+        <v>1.411041440027683</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.946529681253168</v>
@@ -12980,7 +12932,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.42311134107609</v>
+        <v>1.411241962966014</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.081287580232496</v>
@@ -13069,7 +13021,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.421540706107047</v>
+        <v>1.407135980786869</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.065097423559151</v>
@@ -13158,7 +13110,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.409099445344548</v>
+        <v>1.396192139374003</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.019973006675508</v>
@@ -13247,7 +13199,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.428346871374611</v>
+        <v>1.418766825864447</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.005375270208995</v>
@@ -13336,7 +13288,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.40588515900479</v>
+        <v>1.399370167422307</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.053169378134768</v>
@@ -13425,7 +13377,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.389638233521448</v>
+        <v>1.38420110906441</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.097142080333363</v>
@@ -13514,7 +13466,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.380395150062561</v>
+        <v>1.378298241495097</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.041996903978619</v>
@@ -13603,7 +13555,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.425323102829056</v>
+        <v>1.431905473584041</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.386584430864303</v>
@@ -13692,7 +13644,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.412081186940197</v>
+        <v>1.418188878131882</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.121153793097553</v>
@@ -13781,7 +13733,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.406954045709557</v>
+        <v>1.411067950497571</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.069306611921618</v>
@@ -13870,7 +13822,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.434077696861856</v>
+        <v>1.437420237766095</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.19543906459692</v>
@@ -13959,7 +13911,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.442702759677815</v>
+        <v>1.444288881972448</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.144918141905506</v>
@@ -14048,7 +14000,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.424554865456187</v>
+        <v>1.424249600760777</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.09126860800122</v>
@@ -14137,7 +14089,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.422808248513366</v>
+        <v>1.420085671139072</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.018274666518114</v>
@@ -14226,7 +14178,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.434516816343236</v>
+        <v>1.430208375354121</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.07496332324936</v>
@@ -14315,7 +14267,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.427928013758157</v>
+        <v>1.42483691620965</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.061392970842489</v>
@@ -14404,7 +14356,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.450592059688068</v>
+        <v>1.448942131677831</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.985579644895592</v>
@@ -14493,7 +14445,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.450091550793372</v>
+        <v>1.452268697873508</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.075879308510561</v>
@@ -14582,7 +14534,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.432523040448157</v>
+        <v>1.432181893076703</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.087447283820091</v>
@@ -14671,7 +14623,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.449496072676769</v>
+        <v>1.441309415001504</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.930236099226936</v>
@@ -14760,7 +14712,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.474594389094404</v>
+        <v>1.464125768048458</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.991082267881666</v>
@@ -14849,7 +14801,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.523997791247627</v>
+        <v>1.509502269870235</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.948495136806834</v>
@@ -14938,7 +14890,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.510729661708962</v>
+        <v>1.493944807385399</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.97527632138005</v>
@@ -15027,7 +14979,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.565087237238441</v>
+        <v>1.542502039322062</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.668755471589561</v>
@@ -15116,7 +15068,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.542980131156978</v>
+        <v>1.52165207245082</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.406889676745916</v>
@@ -15205,7 +15157,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.538130029068377</v>
+        <v>1.519875463005249</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.451377972905206</v>
@@ -15294,7 +15246,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.541504492620964</v>
+        <v>1.521709834550337</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.273572570058431</v>
@@ -15383,7 +15335,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.532046976187138</v>
+        <v>1.514004122630954</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.410587478155755</v>
@@ -15669,7 +15621,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.597389386569982</v>
+        <v>1.563893047821491</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.97276946882016</v>
@@ -15758,7 +15710,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.603407926628361</v>
+        <v>1.571940296179251</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.919662537042338</v>
@@ -15847,7 +15799,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.584907259904462</v>
+        <v>1.552107196779552</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.920268661883869</v>
@@ -15936,7 +15888,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.568748498404618</v>
+        <v>1.538650525150613</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.740295505065627</v>
@@ -16025,7 +15977,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.538156798196461</v>
+        <v>1.5159715299343</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.766168459659972</v>
@@ -16114,7 +16066,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.505172101007632</v>
+        <v>1.485886324712319</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.343920765128869</v>
@@ -16203,7 +16155,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.499031352904015</v>
+        <v>1.477739873730714</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.436990642119597</v>
@@ -16292,7 +16244,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.519405264889715</v>
+        <v>1.504165837638693</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.523086351742221</v>
@@ -16381,7 +16333,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.505334650380796</v>
+        <v>1.49532126599018</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.526923095972785</v>
@@ -16470,7 +16422,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.509162995739093</v>
+        <v>1.499197050930056</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.494788141771232</v>
@@ -16559,7 +16511,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.520540686736047</v>
+        <v>1.507244530279156</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.43977061308999</v>
@@ -16648,7 +16600,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.527390392662062</v>
+        <v>1.509951544916402</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.48907954361967</v>
@@ -16737,7 +16689,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.516083584517937</v>
+        <v>1.50260468761393</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.455275715344306</v>
@@ -16826,7 +16778,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.512559932796859</v>
+        <v>1.498985942516087</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.517520674490174</v>
@@ -16915,7 +16867,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.500545780810453</v>
+        <v>1.483551765550591</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.440095734355185</v>
@@ -17004,7 +16956,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.506042221955667</v>
+        <v>1.484513693276035</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.514929781372129</v>
@@ -17093,7 +17045,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.506709994306707</v>
+        <v>1.482376020519811</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.483906786903872</v>
@@ -17182,7 +17134,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.519556973008826</v>
+        <v>1.495058170720494</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.49768941744609</v>
@@ -17271,7 +17223,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.512830461688581</v>
+        <v>1.483580552829556</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.12808532716308</v>
@@ -17360,7 +17312,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.530022728714994</v>
+        <v>1.494271985198508</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.233044138981005</v>
@@ -17449,7 +17401,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.547110016920708</v>
+        <v>1.509051901063225</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.457438808802285</v>
@@ -17538,7 +17490,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.552186154629245</v>
+        <v>1.516341065835574</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.486866310445692</v>
@@ -17627,7 +17579,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.538027896599114</v>
+        <v>1.497664454531352</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.37578323185756</v>
@@ -17716,7 +17668,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.538286901812559</v>
+        <v>1.495035263571639</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.392294228805686</v>
@@ -17805,7 +17757,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.53194020227335</v>
+        <v>1.492681376158968</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.436361389954127</v>
@@ -17894,7 +17846,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.536274869153181</v>
+        <v>1.501893619824777</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.343260079852356</v>
@@ -17983,7 +17935,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.532655586787769</v>
+        <v>1.500895332904039</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.310629823564978</v>
@@ -18072,7 +18024,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.535770143264188</v>
+        <v>1.506683975109891</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.403753424069918</v>
@@ -18161,7 +18113,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.533797151352146</v>
+        <v>1.506795091923997</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.507331211476894</v>
@@ -18250,7 +18202,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.507241473849447</v>
+        <v>1.491010833822024</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.161053317735784</v>
@@ -18339,7 +18291,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.506948665613319</v>
+        <v>1.488582172418341</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.111188870599928</v>
@@ -18428,7 +18380,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.491365453932875</v>
+        <v>1.478941617361749</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.17999006445513</v>
@@ -18517,7 +18469,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.487613835717117</v>
+        <v>1.47494683116461</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.137599391096591</v>
@@ -18606,7 +18558,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.50283511030702</v>
+        <v>1.486302393160773</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.241954971682738</v>
@@ -18695,7 +18647,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.503143183427547</v>
+        <v>1.492464595766471</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.264237815064033</v>
@@ -18784,7 +18736,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.51401380806797</v>
+        <v>1.502972656813006</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.22727858133237</v>
@@ -18873,7 +18825,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.510908757445998</v>
+        <v>1.501362772516876</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.129542635989236</v>
@@ -18962,7 +18914,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.521287909175856</v>
+        <v>1.506120366157566</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.073488104894438</v>
@@ -19051,7 +19003,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.521218565779585</v>
+        <v>1.509957442072536</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.170653045504973</v>
@@ -19140,7 +19092,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.515685733847641</v>
+        <v>1.501081360268609</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.091669872842055</v>
@@ -19229,7 +19181,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.515072310836374</v>
+        <v>1.49711573044447</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.145882349494571</v>
@@ -19318,7 +19270,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.499623126298345</v>
+        <v>1.484851543638192</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.089459733114902</v>
@@ -19407,7 +19359,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.49402705609618</v>
+        <v>1.481797898961577</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.126379591874388</v>
@@ -19496,7 +19448,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.497389352757086</v>
+        <v>1.480172974406772</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.030761946959085</v>
@@ -19585,7 +19537,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.530777158339429</v>
+        <v>1.500396593447088</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.52025307798896</v>
@@ -19674,7 +19626,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.532073707181766</v>
+        <v>1.503898764898173</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.800852654156769</v>
@@ -19763,7 +19715,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.551493725558096</v>
+        <v>1.513330548611568</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.794865193763508</v>
@@ -19852,7 +19804,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.542160303445217</v>
+        <v>1.510010312489652</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.012881352896673</v>
@@ -19941,7 +19893,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.540080335766031</v>
+        <v>1.510634978936495</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.862745103763269</v>
@@ -20030,7 +19982,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.521777671231942</v>
+        <v>1.492898093937132</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.893078899575637</v>
@@ -20119,7 +20071,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.525364730406661</v>
+        <v>1.495507613053527</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.900946157347787</v>
@@ -20405,7 +20357,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.734637985838121</v>
+        <v>1.694981798421553</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.622466683225881</v>
@@ -20494,7 +20446,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.751379814807512</v>
+        <v>1.70667227551906</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.644229482731541</v>
@@ -20583,7 +20535,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.736080505231965</v>
+        <v>1.686515482040011</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.626111702475327</v>
@@ -20672,7 +20624,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.664807830223122</v>
+        <v>1.611647947479186</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.405646953860837</v>
@@ -20761,7 +20713,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.679385298237247</v>
+        <v>1.618848479367963</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.717066531705346</v>
@@ -20850,7 +20802,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.684570761996804</v>
+        <v>1.625917783046574</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.733638952477282</v>
@@ -20939,7 +20891,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.697968103223449</v>
+        <v>1.637599276279711</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.742004518638703</v>
@@ -21028,7 +20980,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.724083331963063</v>
+        <v>1.656802060639532</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.828694123043436</v>
@@ -21117,7 +21069,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.728484934343139</v>
+        <v>1.659235193271944</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.69716748110999</v>
@@ -21206,7 +21158,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.740083416334768</v>
+        <v>1.674243262533657</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.636996730791848</v>
@@ -21295,7 +21247,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.738254049088468</v>
+        <v>1.674229439106239</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.722693496972473</v>
@@ -21384,7 +21336,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.744197112966212</v>
+        <v>1.683171084317256</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.726161715626489</v>
@@ -21473,7 +21425,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.700000094006111</v>
+        <v>1.651328209608663</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.492337224394267</v>
@@ -21562,7 +21514,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.65842473787981</v>
+        <v>1.622431989201125</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.574890298173782</v>
@@ -21651,7 +21603,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.640742304105354</v>
+        <v>1.603996379201482</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.590058773652983</v>
@@ -21740,7 +21692,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.631084257759815</v>
+        <v>1.590462484881193</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.529092597712172</v>
@@ -21829,7 +21781,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.630204858691483</v>
+        <v>1.596211196788918</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.5489467053234</v>
@@ -21918,7 +21870,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.630226088660226</v>
+        <v>1.599542532746667</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.477599059379425</v>
@@ -22007,7 +21959,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.634430835216648</v>
+        <v>1.60230575362123</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.681643861019304</v>
@@ -22096,7 +22048,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.631488267538366</v>
+        <v>1.598676790831356</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.583487831797593</v>
@@ -22185,7 +22137,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.623561174554847</v>
+        <v>1.588418062913563</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.520103312447901</v>
@@ -22274,7 +22226,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.622358411258118</v>
+        <v>1.586359630623123</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.517079381566711</v>
@@ -22363,7 +22315,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.624627214634577</v>
+        <v>1.586481256493579</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.536688262549297</v>
@@ -22452,7 +22404,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.61733087515516</v>
+        <v>1.580782275889709</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.462932905876658</v>
@@ -22541,7 +22493,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.596306134696281</v>
+        <v>1.560725729910277</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.556424619805607</v>
@@ -22630,7 +22582,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.608634119885317</v>
+        <v>1.572010384205694</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.397955784867829</v>
@@ -22719,7 +22671,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.600451292092377</v>
+        <v>1.566749830074563</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.442291244192622</v>
@@ -22808,7 +22760,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.646442357936908</v>
+        <v>1.599982985174826</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.998144669977385</v>
@@ -22897,7 +22849,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.679509378660473</v>
+        <v>1.63022765203672</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.392548697503714</v>
@@ -22986,7 +22938,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.6903776929016</v>
+        <v>1.64642224410555</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.63754268966867</v>
@@ -23075,7 +23027,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.696242639764539</v>
+        <v>1.657585362954954</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.357976722857807</v>
@@ -23164,7 +23116,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.694279274407905</v>
+        <v>1.652714329927654</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.646478239479168</v>
@@ -23253,7 +23205,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.687351283401989</v>
+        <v>1.642484779379523</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.65864396014707</v>
@@ -23342,7 +23294,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.686108944988378</v>
+        <v>1.637664123717306</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.594396219185588</v>
@@ -23431,7 +23383,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.683360060789566</v>
+        <v>1.634210631880912</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.479578537188315</v>
@@ -23520,7 +23472,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.680125970104276</v>
+        <v>1.638086828987445</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.493381025253756</v>
@@ -23609,7 +23561,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.674041403023514</v>
+        <v>1.629942884649155</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.561453030750754</v>
@@ -23698,7 +23650,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.672726348313052</v>
+        <v>1.629333469630082</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.415862366086869</v>
@@ -23787,7 +23739,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.68156318522716</v>
+        <v>1.63761435426486</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.683137873929391</v>
@@ -23876,7 +23828,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.684623051241947</v>
+        <v>1.638180523074472</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.624392695382343</v>
@@ -23965,7 +23917,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.679660243957802</v>
+        <v>1.637742888702172</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.664190628122647</v>
@@ -24054,7 +24006,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.663074768024389</v>
+        <v>1.614899741567832</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.579239730668697</v>
@@ -24143,7 +24095,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.630968542957023</v>
+        <v>1.601106286636027</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.449362695601826</v>
@@ -24232,7 +24184,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.617138547010947</v>
+        <v>1.590464865445013</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.556409816127466</v>
@@ -24321,7 +24273,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.606603198004598</v>
+        <v>1.574500717582409</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.531920633400501</v>
@@ -24410,7 +24362,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.593324916265356</v>
+        <v>1.562842542843071</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.442127291425193</v>
@@ -24499,7 +24451,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.585549675219383</v>
+        <v>1.554500532044681</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.519654500475095</v>
@@ -24588,7 +24540,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.581518043804372</v>
+        <v>1.550797478306208</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.46896990917416</v>
@@ -24677,7 +24629,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.573194557342732</v>
+        <v>1.549701524679398</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.516932503324101</v>
@@ -24766,7 +24718,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.568666681756938</v>
+        <v>1.547400647636494</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.477117144839052</v>
@@ -24855,7 +24807,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.564201537180924</v>
+        <v>1.539950250570595</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.34638796068478</v>
@@ -25141,7 +25093,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.784444315856516</v>
+        <v>1.7806449395699</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.397780372658091</v>
@@ -25230,7 +25182,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.781938399275094</v>
+        <v>1.778559818432219</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.39172857755366</v>
@@ -25319,7 +25271,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.761626374724746</v>
+        <v>1.755031507303111</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.279823640235738</v>
@@ -25408,7 +25360,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.639898576099197</v>
+        <v>1.629824357682654</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.367479305855647</v>
@@ -25497,7 +25449,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.637687472417521</v>
+        <v>1.632614128889971</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.533468775983669</v>
@@ -25586,7 +25538,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.631698492806391</v>
+        <v>1.620390624506548</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.529147018991794</v>
@@ -25675,7 +25627,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.626494123744285</v>
+        <v>1.612876963406543</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.624367388665541</v>
@@ -25764,7 +25716,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.636938110334148</v>
+        <v>1.624435472381459</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.572896306487002</v>
@@ -25853,7 +25805,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.648998373477538</v>
+        <v>1.638358178282342</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.516035499855424</v>
@@ -25942,7 +25894,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.641919269898271</v>
+        <v>1.642063173793626</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.613617741140808</v>
@@ -26031,7 +25983,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.644174031115462</v>
+        <v>1.638484912539012</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.66908811724858</v>
@@ -26120,7 +26072,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.646092457087163</v>
+        <v>1.64045663798479</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.604646309975272</v>
@@ -26209,7 +26161,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.639997666404027</v>
+        <v>1.6243854687629</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.011875048560206</v>
@@ -26298,7 +26250,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.645163811597703</v>
+        <v>1.62380905809404</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.921553296537343</v>
@@ -26387,7 +26339,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.639879085050788</v>
+        <v>1.615412355418365</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.322761530921479</v>
@@ -26476,7 +26428,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.60345891482771</v>
+        <v>1.578254724456468</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.970358420445797</v>
@@ -26565,7 +26517,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.600318220339134</v>
+        <v>1.576606205786353</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.042931323202096</v>
@@ -26654,7 +26606,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.597669900204331</v>
+        <v>1.574794665034744</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.898365580992138</v>
@@ -26743,7 +26695,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.58877641510734</v>
+        <v>1.565146837461931</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.693578746088915</v>
@@ -26832,7 +26784,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.589808261526336</v>
+        <v>1.567671871948848</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.912834730475117</v>
@@ -26921,7 +26873,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.597721584794544</v>
+        <v>1.579808217596885</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.01904017125454</v>
@@ -27010,7 +26962,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.604749706800719</v>
+        <v>1.588094549868574</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.973754930396872</v>
@@ -27099,7 +27051,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.60761268402795</v>
+        <v>1.58951512268469</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.010826172535216</v>
@@ -27188,7 +27140,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.612059126930978</v>
+        <v>1.592478016287887</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.997792029503517</v>
@@ -27277,7 +27229,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.610052415169272</v>
+        <v>1.579821114749638</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.902677621766474</v>
@@ -27366,7 +27318,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.608890781396874</v>
+        <v>1.582992314128536</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.749635300096893</v>
@@ -27455,7 +27407,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.607131110451926</v>
+        <v>1.579470005910565</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.830378020537293</v>
@@ -27544,7 +27496,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.598931065005835</v>
+        <v>1.577875817395836</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.846117384479214</v>
@@ -27633,7 +27585,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.592847604429676</v>
+        <v>1.574488887539129</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.947465817693093</v>
@@ -27722,7 +27674,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.60723071023625</v>
+        <v>1.589587323472071</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.542157547685571</v>
@@ -27811,7 +27763,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.640130877356048</v>
+        <v>1.620801401621294</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.529380907473505</v>
@@ -27900,7 +27852,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.637829106029074</v>
+        <v>1.62341901399588</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.720840708857867</v>
@@ -27989,7 +27941,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.640651029272662</v>
+        <v>1.624285716527482</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.65597242019272</v>
@@ -28078,7 +28030,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.662157253251417</v>
+        <v>1.640902241589278</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.95414946175054</v>
@@ -28167,7 +28119,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.649233266250953</v>
+        <v>1.63379742403783</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.685077278181174</v>
@@ -28256,7 +28208,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.640563228752917</v>
+        <v>1.622252607515217</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.826071478948491</v>
@@ -28345,7 +28297,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.622726464951884</v>
+        <v>1.603135448296753</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.732658015498607</v>
@@ -28434,7 +28386,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.623532170315851</v>
+        <v>1.603208547035498</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.792219294521441</v>
@@ -28523,7 +28475,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.607782253332746</v>
+        <v>1.590016875564166</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.750014015720528</v>
@@ -28612,7 +28564,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.612759449034849</v>
+        <v>1.59944730147296</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.964937594504031</v>
@@ -28701,7 +28653,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.600339072523591</v>
+        <v>1.591917024434733</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.815419155390488</v>
@@ -28790,7 +28742,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.586368089470587</v>
+        <v>1.580944338196835</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.89832746844911</v>
@@ -28879,7 +28831,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.57691960054483</v>
+        <v>1.572317532975146</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.680295303133656</v>
@@ -28968,7 +28920,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.571508536407</v>
+        <v>1.565946169255339</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.821701949504276</v>
@@ -29057,7 +29009,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.572636025468683</v>
+        <v>1.567457685134456</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.498607329019872</v>
@@ -29146,7 +29098,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.563553384882616</v>
+        <v>1.554684754103166</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.683502706827802</v>
@@ -29235,7 +29187,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.568199113711759</v>
+        <v>1.557915629867105</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.763139342496394</v>
@@ -29324,7 +29276,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.554610414554104</v>
+        <v>1.542520936955342</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.630289722294472</v>
@@ -29413,7 +29365,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.546711831369158</v>
+        <v>1.539958632237883</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.787653982868696</v>
@@ -29502,7 +29454,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.556638991704331</v>
+        <v>1.544082231525634</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.736718860441264</v>
@@ -29591,7 +29543,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.549416695352565</v>
+        <v>1.53890843295851</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.513228073976612</v>
@@ -29877,7 +29829,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.393195608087212</v>
+        <v>1.394950625074221</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.280615716927349</v>
@@ -29966,7 +29918,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.431425783143179</v>
+        <v>1.430158381362468</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.265082574513963</v>
@@ -30055,7 +30007,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.423535882121902</v>
+        <v>1.422172415533282</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.226683016692613</v>
@@ -30144,7 +30096,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.379394313241154</v>
+        <v>1.368882435506873</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.153299885596319</v>
@@ -30233,7 +30185,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.362984817451147</v>
+        <v>1.360163420962397</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.130703799357659</v>
@@ -30322,7 +30274,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.366649040053404</v>
+        <v>1.363195539975245</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.187024896691266</v>
@@ -30411,7 +30363,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.367357072185987</v>
+        <v>1.365506932672542</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.097176912541951</v>
@@ -30500,7 +30452,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.381341344977675</v>
+        <v>1.375560681254072</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.148868221746975</v>
@@ -30589,7 +30541,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.371538107396574</v>
+        <v>1.371958241223232</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.170106931330807</v>
@@ -30678,7 +30630,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.392242544590647</v>
+        <v>1.38895047259439</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.1595843206479</v>
@@ -30767,7 +30719,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.408503113000199</v>
+        <v>1.405266239441215</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.043279649018731</v>
@@ -30856,7 +30808,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.432052938589435</v>
+        <v>1.420050256451116</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.001142979737236</v>
@@ -30945,7 +30897,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.451000556885281</v>
+        <v>1.442668021603046</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.199597927986809</v>
@@ -31034,7 +30986,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.472936629929378</v>
+        <v>1.46457272208055</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.058804687176957</v>
@@ -31123,7 +31075,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.443921148876816</v>
+        <v>1.436271915879768</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.218997839654459</v>
@@ -31212,7 +31164,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.44123764549592</v>
+        <v>1.434721791604168</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.233807226085621</v>
@@ -31301,7 +31253,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.436997484552735</v>
+        <v>1.43384016131992</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.202671126548864</v>
@@ -31390,7 +31342,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.428614273829895</v>
+        <v>1.425025248089177</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.216005428508761</v>
@@ -31479,7 +31431,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.449778944422508</v>
+        <v>1.438347122840617</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.0321935251736</v>
@@ -31568,7 +31520,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.433231859860147</v>
+        <v>1.430240877933577</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.261100323803769</v>
@@ -31657,7 +31609,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.450185150288814</v>
+        <v>1.445254072835597</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.165619325052365</v>
@@ -31746,7 +31698,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.455941789031435</v>
+        <v>1.451975058136787</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.099301646106178</v>
@@ -31835,7 +31787,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.439792124447144</v>
+        <v>1.432328434557693</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.145803589398706</v>
@@ -31924,7 +31876,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.446380286439989</v>
+        <v>1.438627652545337</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.274325104094996</v>
@@ -32013,7 +31965,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.412191312710784</v>
+        <v>1.406601596342413</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.20124235735823</v>
@@ -32102,7 +32054,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.415143504121453</v>
+        <v>1.410980392200932</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.238915997459016</v>
@@ -32191,7 +32143,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.43118108028454</v>
+        <v>1.424772878733097</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.081477946215794</v>
@@ -32280,7 +32232,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.410031874840421</v>
+        <v>1.400407871585786</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.255858235983868</v>
@@ -32369,7 +32321,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.411607066548365</v>
+        <v>1.411279843276057</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.108057971146385</v>
@@ -32458,7 +32410,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.399827951322101</v>
+        <v>1.403507608056453</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.128789868149872</v>
@@ -32547,7 +32499,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.411332852766973</v>
+        <v>1.417291560689037</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.051212037829601</v>
@@ -32636,7 +32588,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.392741133774086</v>
+        <v>1.39147952347296</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.071489011643936</v>
@@ -32725,7 +32677,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.402173692757019</v>
+        <v>1.399438018966798</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.139098080660266</v>
@@ -32814,7 +32766,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.421308458891671</v>
+        <v>1.415992864845844</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.170140707674815</v>
@@ -32903,7 +32855,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.430933462064323</v>
+        <v>1.424559316575819</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.097765066866192</v>
@@ -32992,7 +32944,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.427753611718967</v>
+        <v>1.418904251988672</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.086035657696342</v>
@@ -33081,7 +33033,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.427265179145821</v>
+        <v>1.417713483217277</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.000918705787314</v>
@@ -33170,7 +33122,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.453811216822815</v>
+        <v>1.443069696473369</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.064826982934846</v>
@@ -33259,7 +33211,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.449568850111902</v>
+        <v>1.437794771669893</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.099272155091576</v>
@@ -33348,7 +33300,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.478764767696248</v>
+        <v>1.462384606921404</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.027027708786896</v>
@@ -33437,7 +33389,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.470718895689252</v>
+        <v>1.455916463918892</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.084421632880991</v>
@@ -33526,7 +33478,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.469473674314241</v>
+        <v>1.455926066595854</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.055225404317287</v>
@@ -33615,7 +33567,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.482490870083294</v>
+        <v>1.468613683720658</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.957939008896528</v>
@@ -33704,7 +33656,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.496950587978278</v>
+        <v>1.473972038012045</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.093882784713357</v>
@@ -33793,7 +33745,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.560300443564026</v>
+        <v>1.525026907799993</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.184170804563252</v>
@@ -33882,7 +33834,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.574079223830657</v>
+        <v>1.536749609643423</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.121173593235774</v>
@@ -33971,7 +33923,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.608026197742233</v>
+        <v>1.573756422039439</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.777124243645883</v>
@@ -34060,7 +34012,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.601670137002332</v>
+        <v>1.56285318248301</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.807555930089853</v>
@@ -34149,7 +34101,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.600188859636763</v>
+        <v>1.56413980895717</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.905087326662894</v>
@@ -34238,7 +34190,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.605148026305552</v>
+        <v>1.568718155549944</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.835068532694208</v>
@@ -34327,7 +34279,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.610869187249251</v>
+        <v>1.579226634486854</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.730836735310919</v>
